--- a/natmiOut/OldD4/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.77374263273644</v>
+        <v>2.904240666666666</v>
       </c>
       <c r="H2">
-        <v>2.77374263273644</v>
+        <v>8.712721999999999</v>
       </c>
       <c r="I2">
-        <v>0.1018347026187751</v>
+        <v>0.09169656143972468</v>
       </c>
       <c r="J2">
-        <v>0.1018347026187751</v>
+        <v>0.09217931572347877</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N2">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O2">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P2">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q2">
-        <v>5.010782713573259</v>
+        <v>15.830127176356</v>
       </c>
       <c r="R2">
-        <v>5.010782713573259</v>
+        <v>142.471144587204</v>
       </c>
       <c r="S2">
-        <v>0.04518434511467842</v>
+        <v>0.0585718040895316</v>
       </c>
       <c r="T2">
-        <v>0.04518434511467842</v>
+        <v>0.05888016668118683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.77374263273644</v>
+        <v>2.904240666666666</v>
       </c>
       <c r="H3">
-        <v>2.77374263273644</v>
+        <v>8.712721999999999</v>
       </c>
       <c r="I3">
-        <v>0.1018347026187751</v>
+        <v>0.09169656143972468</v>
       </c>
       <c r="J3">
-        <v>0.1018347026187751</v>
+        <v>0.09217931572347877</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N3">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O3">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P3">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q3">
-        <v>6.282322591570729</v>
+        <v>8.952586140900667</v>
       </c>
       <c r="R3">
-        <v>6.282322591570729</v>
+        <v>80.573275268106</v>
       </c>
       <c r="S3">
-        <v>0.05665035750409667</v>
+        <v>0.03312475735019309</v>
       </c>
       <c r="T3">
-        <v>0.05665035750409667</v>
+        <v>0.03329914904229194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45703846951128</v>
+        <v>4.057736666666666</v>
       </c>
       <c r="H4">
-        <v>3.45703846951128</v>
+        <v>12.17321</v>
       </c>
       <c r="I4">
-        <v>0.1269211066410421</v>
+        <v>0.1281162762548456</v>
       </c>
       <c r="J4">
-        <v>0.1269211066410421</v>
+        <v>0.1287907691715871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N4">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O4">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P4">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q4">
-        <v>6.245160743733232</v>
+        <v>22.11748090258</v>
       </c>
       <c r="R4">
-        <v>6.245160743733232</v>
+        <v>199.05732812322</v>
       </c>
       <c r="S4">
-        <v>0.05631525341881271</v>
+        <v>0.08183514534960795</v>
       </c>
       <c r="T4">
-        <v>0.05631525341881271</v>
+        <v>0.08226598230094916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45703846951128</v>
+        <v>4.057736666666666</v>
       </c>
       <c r="H5">
-        <v>3.45703846951128</v>
+        <v>12.17321</v>
       </c>
       <c r="I5">
-        <v>0.1269211066410421</v>
+        <v>0.1281162762548456</v>
       </c>
       <c r="J5">
-        <v>0.1269211066410421</v>
+        <v>0.1287907691715871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N5">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O5">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P5">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q5">
-        <v>7.829937291447137</v>
+        <v>12.50834252903667</v>
       </c>
       <c r="R5">
-        <v>7.829937291447137</v>
+        <v>112.57508276133</v>
       </c>
       <c r="S5">
-        <v>0.0706058532222294</v>
+        <v>0.04628113090523764</v>
       </c>
       <c r="T5">
-        <v>0.0706058532222294</v>
+        <v>0.04652478687063798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2427809919103</v>
+        <v>14.37919833333333</v>
       </c>
       <c r="H6">
-        <v>11.2427809919103</v>
+        <v>43.137595</v>
       </c>
       <c r="I6">
-        <v>0.4127654979257014</v>
+        <v>0.4539992358621634</v>
       </c>
       <c r="J6">
-        <v>0.4127654979257014</v>
+        <v>0.4563894026524156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N6">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O6">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P6">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q6">
-        <v>20.3101513391589</v>
+        <v>78.37661008030999</v>
       </c>
       <c r="R6">
-        <v>20.3101513391589</v>
+        <v>705.3894907227899</v>
       </c>
       <c r="S6">
-        <v>0.1831452170045264</v>
+        <v>0.2899951086736794</v>
       </c>
       <c r="T6">
-        <v>0.1831452170045264</v>
+        <v>0.2915218440144804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2427809919103</v>
+        <v>14.37919833333333</v>
       </c>
       <c r="H7">
-        <v>11.2427809919103</v>
+        <v>43.137595</v>
       </c>
       <c r="I7">
-        <v>0.4127654979257014</v>
+        <v>0.4539992358621634</v>
       </c>
       <c r="J7">
-        <v>0.4127654979257014</v>
+        <v>0.4563894026524156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N7">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O7">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P7">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q7">
-        <v>25.46407016424561</v>
+        <v>44.32518736954834</v>
       </c>
       <c r="R7">
-        <v>25.46407016424561</v>
+        <v>398.926686325935</v>
       </c>
       <c r="S7">
-        <v>0.2296202809211751</v>
+        <v>0.164004127188484</v>
       </c>
       <c r="T7">
-        <v>0.2296202809211751</v>
+        <v>0.1648675586379352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.300683239603041</v>
+        <v>9.833505666666667</v>
       </c>
       <c r="H8">
-        <v>9.300683239603041</v>
+        <v>29.500517</v>
       </c>
       <c r="I8">
-        <v>0.341463660210611</v>
+        <v>0.3104765616984156</v>
       </c>
       <c r="J8">
-        <v>0.341463660210611</v>
+        <v>0.3121111256102115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N8">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O8">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P8">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q8">
-        <v>16.80174009347309</v>
+        <v>53.599430336266</v>
       </c>
       <c r="R8">
-        <v>16.80174009347309</v>
+        <v>482.394873026394</v>
       </c>
       <c r="S8">
-        <v>0.1515083902668848</v>
+        <v>0.1983190215714328</v>
       </c>
       <c r="T8">
-        <v>0.1515083902668848</v>
+        <v>0.1993631104195895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.300683239603041</v>
+        <v>9.833505666666667</v>
       </c>
       <c r="H9">
-        <v>9.300683239603041</v>
+        <v>29.500517</v>
       </c>
       <c r="I9">
-        <v>0.341463660210611</v>
+        <v>0.3104765616984156</v>
       </c>
       <c r="J9">
-        <v>0.341463660210611</v>
+        <v>0.3121111256102115</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N9">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O9">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P9">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q9">
-        <v>21.06536192060376</v>
+        <v>30.31267606651567</v>
       </c>
       <c r="R9">
-        <v>21.06536192060376</v>
+        <v>272.814084598641</v>
       </c>
       <c r="S9">
-        <v>0.1899552699437262</v>
+        <v>0.1121575401269828</v>
       </c>
       <c r="T9">
-        <v>0.1899552699437262</v>
+        <v>0.1127480151906221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.463450278903789</v>
+        <v>0.497615</v>
       </c>
       <c r="H10">
-        <v>0.463450278903789</v>
+        <v>0.9952300000000001</v>
       </c>
       <c r="I10">
-        <v>0.01701503260387036</v>
+        <v>0.01571136474485078</v>
       </c>
       <c r="J10">
-        <v>0.01701503260387036</v>
+        <v>0.01052938684230689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N10">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O10">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P10">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q10">
-        <v>0.8372257103900059</v>
+        <v>2.71234709481</v>
       </c>
       <c r="R10">
-        <v>0.8372257103900059</v>
+        <v>16.27408256886</v>
       </c>
       <c r="S10">
-        <v>0.007549618013702913</v>
+        <v>0.01003574139930516</v>
       </c>
       <c r="T10">
-        <v>0.007549618013702913</v>
+        <v>0.006725717667350982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.463450278903789</v>
+        <v>0.497615</v>
       </c>
       <c r="H11">
-        <v>0.463450278903789</v>
+        <v>0.9952300000000001</v>
       </c>
       <c r="I11">
-        <v>0.01701503260387036</v>
+        <v>0.01571136474485078</v>
       </c>
       <c r="J11">
-        <v>0.01701503260387036</v>
+        <v>0.01052938684230689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N11">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O11">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P11">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q11">
-        <v>1.049680717621101</v>
+        <v>1.533943520465</v>
       </c>
       <c r="R11">
-        <v>1.049680717621101</v>
+        <v>9.203661122790001</v>
       </c>
       <c r="S11">
-        <v>0.009465414590167445</v>
+        <v>0.005675623345545629</v>
       </c>
       <c r="T11">
-        <v>0.009465414590167445</v>
+        <v>0.003803669174955911</v>
       </c>
     </row>
   </sheetData>
